--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862" activeTab="2"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
     <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
-    <sheet name="Desenho do Mapa P2" sheetId="17" r:id="rId5"/>
-    <sheet name="Mapeamento P2 - Fluxo 1" sheetId="19" r:id="rId6"/>
-    <sheet name="Mapeamento P2 - Fluxo 2" sheetId="18" r:id="rId7"/>
+    <sheet name="Desenho ODS_REMUNER_DOCENTE " sheetId="17" r:id="rId5"/>
+    <sheet name="Map - ATU_ODS_REMUN_DOCENTE F1" sheetId="19" r:id="rId6"/>
+    <sheet name="Map - ATU_ODS_REMUN_DOCENTE F2" sheetId="18" r:id="rId7"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1120,25 +1120,6 @@
     </r>
   </si>
   <si>
-    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
-AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_DESC AND V_DT_FIM_SELECAO_DESC
-AND IND_SUBSTITUICAO = 'N'
-AND DT_GERACAO_PAGAMENTO IS NOT NULL
-AND DT_SOLICITACAO_DESCONTO IS NOT NULL
-AND DT_GERACAO_DESCONTO IS NULL
-AND VAL_A_PAGAR &gt; 0
-AND QTD_VAGAS_PREENCHIDAS &gt; 0
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
-AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_PAG AND V_DT_FIM_SELECAO_PAG
-AND DT_GERACAO_PAGAMENTO IS NULL
-AND IND_SUBSTITUICAO = 'N'
-AND VAL_A_PAGAR &gt; 0
-AND QTD_VAGAS_PREENCHIDAS &gt; 0</t>
-  </si>
-  <si>
     <t>V_DT_INI_SELECAO_PAG</t>
   </si>
   <si>
@@ -1219,12 +1200,35 @@
   <si>
     <t>REMUNETACAO_DOCENTE</t>
   </si>
+  <si>
+    <t>NOM_PROCESSO = 'PRO_APURACAO_EXTENSAO'
+AND IND_APTO_PAGAMENTO = 1
+AND COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_PAG AND V_DT_FIM_SELECAO_PAG
+AND DT_GERACAO_PAGAMENTO IS NULL
+AND IND_SUBSTITUICAO = 'N'
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO =  'PRO_APURACAO_EXTENSAO'
+AND IND_APTO_PAGAMENTO = 1
+AND COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_DESC AND V_DT_FIM_SELECAO_DESC
+AND IND_SUBSTITUICAO = 'N'
+AND DT_GERACAO_PAGAMENTO IS NOT NULL
+AND DT_SOLICITACAO_DESCONTO IS NOT NULL
+AND DT_GERACAO_DESCONTO IS NULL
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2088,6 +2092,27 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2100,15 +2125,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,14 +2164,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2166,9 +2182,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2187,11 +2200,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2202,14 +2286,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2229,98 +2328,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2336,6 +2343,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2347,18 +2363,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2382,7 +2386,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2412,7 +2416,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2479,7 +2483,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2527,7 +2531,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2550,14 +2554,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2600,7 +2604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2623,14 +2627,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2644,98 +2648,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20481" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s20481"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2825,7 +2737,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2860,7 +2771,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -3036,15 +2946,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
@@ -3053,13 +2963,13 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="113" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="113"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="120"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
@@ -3067,22 +2977,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="C5" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -3093,137 +3003,145 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131" t="s">
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="117"/>
       <c r="H13" s="118"/>
       <c r="I13" s="118"/>
       <c r="J13" s="119"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="117"/>
       <c r="H14" s="118"/>
       <c r="I14" s="118"/>
       <c r="J14" s="119"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="117"/>
       <c r="H15" s="118"/>
       <c r="I15" s="118"/>
       <c r="J15" s="119"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="117"/>
       <c r="H16" s="118"/>
       <c r="I16" s="118"/>
       <c r="J16" s="119"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3234,14 +3152,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3251,17 +3161,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="13" customWidth="1"/>
@@ -3270,16 +3178,16 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="21">
         <f>Identificação!D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
@@ -3288,7 +3196,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3299,142 +3207,142 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="139" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3445,20 +3353,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="137" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
         <v>61</v>
       </c>
@@ -3468,31 +3376,31 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="147"/>
+      <c r="G18" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3503,14 +3411,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="137" t="s">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B21" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="43" t="s">
         <v>62</v>
       </c>
@@ -3521,14 +3429,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="204" t="s">
-        <v>164</v>
+    <row r="23" spans="2:10">
+      <c r="B23" s="113" t="s">
+        <v>162</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3539,20 +3447,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="139" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B25" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="48" t="s">
         <v>67</v>
       </c>
@@ -3562,61 +3470,52 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147" t="s">
+      <c r="F26" s="139"/>
+      <c r="G26" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3633,6 +3532,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3643,65 +3551,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>31</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3737,7 +3620,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -3745,45 +3628,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3750,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29">
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
@@ -3889,10 +3772,10 @@
         <v>104</v>
       </c>
       <c r="R4" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S4" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T4" s="73"/>
       <c r="U4" s="77" t="s">
@@ -3915,7 +3798,7 @@
       <c r="AB4" s="59"/>
       <c r="AC4" s="59"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29">
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -3937,10 +3820,10 @@
         <v>104</v>
       </c>
       <c r="R5" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T5" s="73"/>
       <c r="U5" s="77" t="s">
@@ -3963,7 +3846,7 @@
       <c r="AB5" s="59"/>
       <c r="AC5" s="59"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29">
       <c r="B6" s="61" t="s">
         <v>107</v>
       </c>
@@ -4003,10 +3886,10 @@
         <v>104</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T6" s="75"/>
       <c r="U6" s="77" t="s">
@@ -4029,7 +3912,7 @@
       <c r="AB6" s="59"/>
       <c r="AC6" s="59"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29">
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="68"/>
@@ -4051,10 +3934,10 @@
         <v>104</v>
       </c>
       <c r="R7" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S7" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="77" t="s">
@@ -4077,7 +3960,7 @@
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" s="61" t="s">
         <v>107</v>
       </c>
@@ -4117,10 +4000,10 @@
         <v>104</v>
       </c>
       <c r="R8" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S8" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T8" s="73"/>
       <c r="U8" s="77" t="s">
@@ -4143,7 +4026,7 @@
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29">
       <c r="B9" s="61" t="s">
         <v>107</v>
       </c>
@@ -4174,42 +4057,42 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="148" t="s">
+      <c r="N9" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="171"/>
-      <c r="U9" s="172" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="181"/>
+      <c r="U9" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="169" t="s">
+      <c r="V9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="169" t="s">
+      <c r="W9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="170" t="s">
+      <c r="X9" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="175">
+      <c r="Y9" s="182">
         <v>11</v>
       </c>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z9" s="185"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+    </row>
+    <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
         <v>107</v>
       </c>
@@ -4240,24 +4123,24 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="176"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="185"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+    </row>
+    <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
         <v>107</v>
       </c>
@@ -4288,24 +4171,24 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="177"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="185"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+    </row>
+    <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
         <v>107</v>
       </c>
@@ -4345,10 +4228,10 @@
         <v>104</v>
       </c>
       <c r="R12" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S12" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T12" s="73"/>
       <c r="U12" s="77" t="s">
@@ -4371,7 +4254,7 @@
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29">
       <c r="B13" s="61" t="s">
         <v>107</v>
       </c>
@@ -4411,10 +4294,10 @@
         <v>104</v>
       </c>
       <c r="R13" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S13" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T13" s="73"/>
       <c r="U13" s="77" t="s">
@@ -4437,7 +4320,7 @@
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29">
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -4477,10 +4360,10 @@
         <v>104</v>
       </c>
       <c r="R14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T14" s="73"/>
       <c r="U14" s="77" t="s">
@@ -4503,7 +4386,7 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29">
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="68"/>
@@ -4525,10 +4408,10 @@
         <v>104</v>
       </c>
       <c r="R15" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S15" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T15" s="75"/>
       <c r="U15" s="77" t="s">
@@ -4553,7 +4436,7 @@
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29">
       <c r="B16" s="61" t="s">
         <v>107</v>
       </c>
@@ -4595,10 +4478,10 @@
         <v>104</v>
       </c>
       <c r="R16" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S16" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T16" s="75"/>
       <c r="U16" s="77" t="s">
@@ -4623,7 +4506,7 @@
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="68"/>
@@ -4645,10 +4528,10 @@
         <v>104</v>
       </c>
       <c r="R17" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S17" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T17" s="75"/>
       <c r="U17" s="77" t="s">
@@ -4669,7 +4552,7 @@
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29">
       <c r="B18" s="61" t="s">
         <v>107</v>
       </c>
@@ -4709,10 +4592,10 @@
         <v>104</v>
       </c>
       <c r="R18" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S18" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T18" s="75"/>
       <c r="U18" s="77" t="s">
@@ -4735,7 +4618,7 @@
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29">
       <c r="B19" s="61" t="s">
         <v>107</v>
       </c>
@@ -4775,10 +4658,10 @@
         <v>104</v>
       </c>
       <c r="R19" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S19" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T19" s="75"/>
       <c r="U19" s="77" t="s">
@@ -4801,7 +4684,7 @@
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="61" t="s">
         <v>107</v>
       </c>
@@ -4841,10 +4724,10 @@
         <v>104</v>
       </c>
       <c r="R20" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S20" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T20" s="75"/>
       <c r="U20" s="77" t="s">
@@ -4867,7 +4750,7 @@
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="61" t="s">
         <v>107</v>
       </c>
@@ -4907,10 +4790,10 @@
         <v>104</v>
       </c>
       <c r="R21" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S21" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T21" s="75"/>
       <c r="U21" s="77" t="s">
@@ -4933,7 +4816,7 @@
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
     </row>
-    <row r="22" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" ht="24">
       <c r="B22" s="61" t="s">
         <v>107</v>
       </c>
@@ -4973,10 +4856,10 @@
         <v>104</v>
       </c>
       <c r="R22" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S22" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T22" s="75"/>
       <c r="U22" s="77" t="s">
@@ -4999,7 +4882,7 @@
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
     </row>
-    <row r="23" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="24">
       <c r="B23" s="61" t="s">
         <v>107</v>
       </c>
@@ -5039,10 +4922,10 @@
         <v>104</v>
       </c>
       <c r="R23" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S23" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T23" s="75"/>
       <c r="U23" s="77" t="s">
@@ -5065,7 +4948,7 @@
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="61" t="s">
         <v>107</v>
       </c>
@@ -5105,10 +4988,10 @@
         <v>104</v>
       </c>
       <c r="R24" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S24" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T24" s="75"/>
       <c r="U24" s="77" t="s">
@@ -5131,7 +5014,7 @@
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29">
       <c r="B25" s="61" t="s">
         <v>107</v>
       </c>
@@ -5156,42 +5039,42 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="180" t="s">
+      <c r="N25" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="183" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="S25" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="166"/>
-      <c r="U25" s="172" t="s">
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25" s="152"/>
+      <c r="U25" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="151" t="s">
+      <c r="V25" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="151" t="s">
+      <c r="W25" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="186" t="s">
+      <c r="X25" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="157">
+      <c r="Y25" s="190">
         <v>15</v>
       </c>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
         <v>107</v>
       </c>
@@ -5222,24 +5105,24 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N26" s="150"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="68"/>
@@ -5256,24 +5139,24 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="167"/>
-      <c r="T27" s="167"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N27" s="150"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="188"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
         <v>107</v>
       </c>
@@ -5298,24 +5181,24 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N28" s="150"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="68"/>
@@ -5332,24 +5215,24 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N29" s="150"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
@@ -5366,24 +5249,24 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="190"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="167"/>
-      <c r="T30" s="167"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N30" s="150"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="159"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="188"/>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
@@ -5400,24 +5283,24 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="167"/>
-      <c r="T31" s="167"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N31" s="150"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="159"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="188"/>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
         <v>107</v>
       </c>
@@ -5448,24 +5331,24 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-    </row>
-    <row r="33" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="N32" s="151"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="189"/>
+    </row>
+    <row r="33" spans="2:29" ht="24">
       <c r="B33" s="69" t="s">
         <v>107</v>
       </c>
@@ -5505,10 +5388,10 @@
         <v>104</v>
       </c>
       <c r="R33" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S33" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T33" s="80"/>
       <c r="U33" s="94" t="s">
@@ -5531,7 +5414,7 @@
       <c r="AB33" s="80"/>
       <c r="AC33" s="80"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="69" t="s">
         <v>107</v>
       </c>
@@ -5567,10 +5450,10 @@
         <v>104</v>
       </c>
       <c r="R34" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S34" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T34" s="80"/>
       <c r="U34" s="94" t="s">
@@ -5591,7 +5474,7 @@
       <c r="AB34" s="80"/>
       <c r="AC34" s="80"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="69" t="s">
         <v>107</v>
       </c>
@@ -5629,10 +5512,10 @@
         <v>104</v>
       </c>
       <c r="R35" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S35" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T35" s="80"/>
       <c r="U35" s="94" t="s">
@@ -5653,7 +5536,7 @@
       <c r="AB35" s="80"/>
       <c r="AC35" s="80"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36" s="69" t="s">
         <v>107</v>
       </c>
@@ -5693,10 +5576,10 @@
         <v>104</v>
       </c>
       <c r="R36" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S36" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T36" s="80"/>
       <c r="U36" s="94" t="s">
@@ -5719,7 +5602,7 @@
       <c r="AB36" s="80"/>
       <c r="AC36" s="80"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="69" t="s">
         <v>107</v>
       </c>
@@ -5759,10 +5642,10 @@
         <v>104</v>
       </c>
       <c r="R37" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T37" s="80"/>
       <c r="U37" s="94" t="s">
@@ -5785,7 +5668,7 @@
       <c r="AB37" s="80"/>
       <c r="AC37" s="80"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38" s="69" t="s">
         <v>107</v>
       </c>
@@ -5825,10 +5708,10 @@
         <v>104</v>
       </c>
       <c r="R38" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T38" s="73" t="s">
         <v>116</v>
@@ -5853,7 +5736,7 @@
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
     </row>
-    <row r="39" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" ht="24">
       <c r="B39" s="69" t="s">
         <v>107</v>
       </c>
@@ -5893,10 +5776,10 @@
         <v>104</v>
       </c>
       <c r="R39" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T39" s="75"/>
       <c r="U39" s="77" t="s">
@@ -5919,7 +5802,7 @@
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40" s="69" t="s">
         <v>107</v>
       </c>
@@ -5955,10 +5838,10 @@
         <v>104</v>
       </c>
       <c r="R40" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S40" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T40" s="80"/>
       <c r="U40" s="94" t="s">
@@ -5979,7 +5862,7 @@
       <c r="AB40" s="80"/>
       <c r="AC40" s="80"/>
     </row>
-    <row r="41" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" ht="24">
       <c r="B41" s="69" t="s">
         <v>107</v>
       </c>
@@ -6015,10 +5898,10 @@
         <v>104</v>
       </c>
       <c r="R41" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S41" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T41" s="80"/>
       <c r="U41" s="94" t="s">
@@ -6039,7 +5922,7 @@
       <c r="AB41" s="80"/>
       <c r="AC41" s="80"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29">
       <c r="B42" s="86" t="s">
         <v>107</v>
       </c>
@@ -6081,10 +5964,10 @@
         <v>104</v>
       </c>
       <c r="R42" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S42" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T42" s="80"/>
       <c r="U42" s="94" t="s">
@@ -6107,7 +5990,7 @@
       <c r="AB42" s="80"/>
       <c r="AC42" s="80"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="89"/>
       <c r="C43" s="89"/>
       <c r="D43" s="90"/>
@@ -6129,10 +6012,10 @@
         <v>104</v>
       </c>
       <c r="R43" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S43" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T43" s="80"/>
       <c r="U43" s="94" t="s">
@@ -6155,7 +6038,7 @@
       <c r="AB43" s="80"/>
       <c r="AC43" s="80"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29">
       <c r="B44" s="89"/>
       <c r="C44" s="89"/>
       <c r="D44" s="90"/>
@@ -6177,10 +6060,10 @@
         <v>104</v>
       </c>
       <c r="R44" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S44" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T44" s="80"/>
       <c r="U44" s="94" t="s">
@@ -6203,7 +6086,7 @@
       <c r="AB44" s="80"/>
       <c r="AC44" s="80"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29">
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
       <c r="D45" s="90"/>
@@ -6223,10 +6106,10 @@
         <v>104</v>
       </c>
       <c r="R45" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S45" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T45" s="80"/>
       <c r="U45" s="94" t="s">
@@ -6247,81 +6130,80 @@
       <c r="AB45" s="80"/>
       <c r="AC45" s="80"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29">
       <c r="F46" s="56"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29">
       <c r="F47" s="56"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29">
       <c r="F48" s="56"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6">
       <c r="F49" s="56"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6">
       <c r="F50" s="56"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6">
       <c r="F51" s="56"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6">
       <c r="F52" s="56"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6">
       <c r="F53" s="56"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6">
       <c r="F54" s="56"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6">
       <c r="F55" s="56"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6">
       <c r="F56" s="56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6">
       <c r="F57" s="56"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6">
       <c r="F58" s="56"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6">
       <c r="F59" s="56"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6">
       <c r="F60" s="56"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6">
       <c r="F61" s="56"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6">
       <c r="F62" s="56"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6">
       <c r="F63" s="56"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6">
       <c r="F64" s="56"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6">
       <c r="F65" s="56"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6">
       <c r="F66" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6338,15 +6220,16 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6356,54 +6239,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6416,7 +6274,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -6451,7 +6309,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -6459,45 +6317,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -6581,7 +6439,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="3" customFormat="1">
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="90"/>
@@ -6595,7 +6453,7 @@
       <c r="L4" s="89"/>
       <c r="M4" s="89"/>
       <c r="N4" s="57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O4" s="103"/>
       <c r="P4" s="103"/>
@@ -6605,10 +6463,10 @@
       <c r="T4" s="89"/>
       <c r="U4" s="104"/>
       <c r="V4" s="79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W4" s="79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X4" s="72" t="s">
         <v>117</v>
@@ -6619,7 +6477,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="3" customFormat="1">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="90"/>
@@ -6633,7 +6491,7 @@
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O5" s="103"/>
       <c r="P5" s="103"/>
@@ -6643,10 +6501,10 @@
       <c r="T5" s="89"/>
       <c r="U5" s="104"/>
       <c r="V5" s="79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W5" s="79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X5" s="72" t="s">
         <v>117</v>
@@ -6657,7 +6515,7 @@
       <c r="AB5" s="80"/>
       <c r="AC5" s="80"/>
     </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="3" customFormat="1">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="90"/>
@@ -6671,7 +6529,7 @@
       <c r="L6" s="89"/>
       <c r="M6" s="89"/>
       <c r="N6" s="57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O6" s="103"/>
       <c r="P6" s="103"/>
@@ -6681,10 +6539,10 @@
       <c r="T6" s="89"/>
       <c r="U6" s="104"/>
       <c r="V6" s="79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W6" s="79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X6" s="72" t="s">
         <v>117</v>
@@ -6695,7 +6553,7 @@
       <c r="AB6" s="80"/>
       <c r="AC6" s="80"/>
     </row>
-    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="90"/>
@@ -6709,7 +6567,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="89"/>
       <c r="N7" s="57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O7" s="103"/>
       <c r="P7" s="103"/>
@@ -6719,10 +6577,10 @@
       <c r="T7" s="89"/>
       <c r="U7" s="104"/>
       <c r="V7" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W7" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X7" s="72" t="s">
         <v>117</v>
@@ -6733,7 +6591,7 @@
       <c r="AB7" s="80"/>
       <c r="AC7" s="80"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -6741,10 +6599,10 @@
         <v>104</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>94</v>
@@ -6773,18 +6631,18 @@
         <v>104</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T8" s="83"/>
       <c r="U8" s="83"/>
       <c r="V8" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W8" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X8" s="72" t="s">
         <v>115</v>
@@ -6799,7 +6657,7 @@
       <c r="AB8" s="80"/>
       <c r="AC8" s="80"/>
     </row>
-    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -6807,10 +6665,10 @@
         <v>104</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>142</v>
@@ -6828,42 +6686,42 @@
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
-      <c r="N9" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" s="192"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="194" t="s">
+      <c r="N9" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="S9" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="192"/>
-      <c r="U9" s="194" t="s">
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="193"/>
+      <c r="U9" s="195" t="s">
         <v>138</v>
       </c>
-      <c r="V9" s="194" t="s">
+      <c r="V9" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="194" t="s">
+      <c r="W9" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="X9" s="192" t="s">
+      <c r="X9" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="192">
+      <c r="Y9" s="193">
         <v>2</v>
       </c>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -6871,10 +6729,10 @@
         <v>104</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>131</v>
@@ -6892,38 +6750,38 @@
       </c>
       <c r="L10" s="80"/>
       <c r="M10" s="96"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="195" t="s">
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S10" s="195"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="195" t="s">
+      <c r="S10" s="196"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V10" s="195" t="s">
+      <c r="V10" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="W10" s="195" t="s">
+      <c r="W10" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="193" t="s">
+      <c r="X10" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="193">
+      <c r="Y10" s="194">
         <v>2</v>
       </c>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1">
       <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
@@ -6931,10 +6789,10 @@
         <v>104</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>130</v>
@@ -6950,36 +6808,36 @@
       <c r="K11" s="59"/>
       <c r="L11" s="80"/>
       <c r="M11" s="97"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="195" t="s">
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="195"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="195" t="s">
+      <c r="S11" s="196"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="195" t="s">
+      <c r="V11" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="W11" s="195" t="s">
+      <c r="W11" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="X11" s="193" t="s">
+      <c r="X11" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="193"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1">
       <c r="B12" s="79" t="s">
         <v>107</v>
       </c>
@@ -6987,10 +6845,10 @@
         <v>104</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>125</v>
@@ -7006,36 +6864,36 @@
       <c r="K12" s="59"/>
       <c r="L12" s="80"/>
       <c r="M12" s="97"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="195" t="s">
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="195"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="195" t="s">
+      <c r="S12" s="196"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V12" s="195" t="s">
+      <c r="V12" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="195" t="s">
+      <c r="W12" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="X12" s="193" t="s">
+      <c r="X12" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="193"/>
-    </row>
-    <row r="13" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1">
       <c r="B13" s="79" t="s">
         <v>107</v>
       </c>
@@ -7043,10 +6901,10 @@
         <v>104</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="79" t="s">
         <v>127</v>
@@ -7064,38 +6922,38 @@
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="97"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" s="195" t="s">
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="195"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="195" t="s">
+      <c r="S13" s="196"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V13" s="195" t="s">
+      <c r="V13" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="195" t="s">
+      <c r="W13" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="X13" s="193" t="s">
+      <c r="X13" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="Y13" s="193">
+      <c r="Y13" s="194">
         <v>1</v>
       </c>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="193"/>
-      <c r="AC13" s="193"/>
-    </row>
-    <row r="14" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1">
       <c r="B14" s="79" t="s">
         <v>107</v>
       </c>
@@ -7103,10 +6961,10 @@
         <v>104</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>94</v>
@@ -7126,40 +6984,40 @@
         <v>2</v>
       </c>
       <c r="M14" s="78"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="195" t="s">
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S14" s="195"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="195" t="s">
+      <c r="S14" s="196"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V14" s="195" t="s">
+      <c r="V14" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="W14" s="195" t="s">
+      <c r="W14" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="X14" s="193" t="s">
+      <c r="X14" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="193">
+      <c r="Y14" s="194">
         <v>8</v>
       </c>
-      <c r="Z14" s="193">
+      <c r="Z14" s="194">
         <v>2</v>
       </c>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="193"/>
-      <c r="AC14" s="193"/>
-    </row>
-    <row r="15" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1">
       <c r="B15" s="87" t="s">
         <v>107</v>
       </c>
@@ -7167,10 +7025,10 @@
         <v>104</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>132</v>
@@ -7188,38 +7046,38 @@
       </c>
       <c r="L15" s="82"/>
       <c r="M15" s="96"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="195" t="s">
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="195"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="196" t="s">
+      <c r="S15" s="196"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="V15" s="195" t="s">
+      <c r="V15" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="W15" s="195" t="s">
+      <c r="W15" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="X15" s="193" t="s">
+      <c r="X15" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y15" s="193">
+      <c r="Y15" s="194">
         <v>5</v>
       </c>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="193"/>
-      <c r="AC15" s="193"/>
-    </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B16" s="100" t="s">
         <v>107</v>
       </c>
@@ -7227,10 +7085,10 @@
         <v>104</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="100" t="s">
         <v>89</v>
@@ -7249,7 +7107,7 @@
       <c r="L16" s="81"/>
       <c r="M16" s="80"/>
       <c r="N16" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O16" s="83"/>
       <c r="P16" s="83"/>
@@ -7257,18 +7115,18 @@
         <v>104</v>
       </c>
       <c r="R16" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S16" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T16" s="83"/>
       <c r="U16" s="83"/>
       <c r="V16" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W16" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X16" s="79" t="s">
         <v>118</v>
@@ -7281,7 +7139,7 @@
       <c r="AB16" s="80"/>
       <c r="AC16" s="80"/>
     </row>
-    <row r="17" spans="2:29" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" ht="96">
       <c r="B17" s="100" t="s">
         <v>107</v>
       </c>
@@ -7289,16 +7147,16 @@
         <v>104</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F17" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G17" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
@@ -7311,7 +7169,7 @@
       <c r="L17" s="81"/>
       <c r="M17" s="80"/>
       <c r="N17" s="57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O17" s="83"/>
       <c r="P17" s="83"/>
@@ -7319,18 +7177,18 @@
         <v>104</v>
       </c>
       <c r="R17" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S17" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T17" s="83"/>
       <c r="U17" s="83"/>
       <c r="V17" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W17" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X17" s="75" t="s">
         <v>115</v>
@@ -7343,7 +7201,7 @@
       <c r="AB17" s="80"/>
       <c r="AC17" s="80"/>
     </row>
-    <row r="18" spans="2:29" ht="348" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" ht="324">
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
       <c r="D18" s="68"/>
@@ -7365,10 +7223,10 @@
         <v>104</v>
       </c>
       <c r="R18" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S18" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T18" s="73"/>
       <c r="U18" s="77" t="s">
@@ -7391,59 +7249,67 @@
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29">
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="F32" s="56"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6">
       <c r="F33" s="56"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6">
       <c r="F34" s="56"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6">
       <c r="F35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC9:AC15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="X9:X15"/>
+    <mergeCell ref="Y9:Y15"/>
+    <mergeCell ref="Z9:Z15"/>
+    <mergeCell ref="AA9:AA15"/>
+    <mergeCell ref="W9:W15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7455,14 +7321,6 @@
     <mergeCell ref="S9:S15"/>
     <mergeCell ref="T9:T15"/>
     <mergeCell ref="AB9:AB15"/>
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7472,7 +7330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7485,7 +7343,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7520,7 +7378,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -7528,45 +7386,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7650,7 +7508,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29">
       <c r="B4" s="79" t="s">
         <v>107</v>
       </c>
@@ -7658,10 +7516,10 @@
         <v>104</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>94</v>
@@ -7690,18 +7548,18 @@
         <v>104</v>
       </c>
       <c r="R4" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S4" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T4" s="83"/>
       <c r="U4" s="83"/>
       <c r="V4" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W4" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X4" s="72" t="s">
         <v>115</v>
@@ -7716,7 +7574,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="3" customFormat="1">
       <c r="B5" s="79" t="s">
         <v>107</v>
       </c>
@@ -7724,10 +7582,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>142</v>
@@ -7745,42 +7603,42 @@
       </c>
       <c r="L5" s="80"/>
       <c r="M5" s="97"/>
-      <c r="N5" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="S5" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192" t="s">
+      <c r="N5" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="S5" s="195" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="192" t="s">
+      <c r="V5" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="192" t="s">
+      <c r="W5" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="X5" s="192" t="s">
+      <c r="X5" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="198">
+      <c r="Y5" s="202">
         <v>2</v>
       </c>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="201"/>
-      <c r="AC5" s="201"/>
-    </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="Z5" s="193"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+    </row>
+    <row r="6" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B6" s="79" t="s">
         <v>107</v>
       </c>
@@ -7788,10 +7646,10 @@
         <v>104</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>131</v>
@@ -7809,38 +7667,38 @@
       </c>
       <c r="L6" s="80"/>
       <c r="M6" s="96"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="195" t="s">
+      <c r="N6" s="194"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="195"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193" t="s">
+      <c r="S6" s="196"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="V6" s="193" t="s">
+      <c r="V6" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="W6" s="193" t="s">
+      <c r="W6" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="193" t="s">
+      <c r="X6" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="199">
+      <c r="Y6" s="203">
         <v>2</v>
       </c>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="202"/>
-      <c r="AB6" s="202"/>
-      <c r="AC6" s="202"/>
-    </row>
-    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="199"/>
+      <c r="AB6" s="199"/>
+      <c r="AC6" s="199"/>
+    </row>
+    <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="79" t="s">
         <v>107</v>
       </c>
@@ -7848,10 +7706,10 @@
         <v>104</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>130</v>
@@ -7867,36 +7725,36 @@
       <c r="K7" s="59"/>
       <c r="L7" s="80"/>
       <c r="M7" s="97"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="195" t="s">
+      <c r="N7" s="194"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="195"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193" t="s">
+      <c r="S7" s="196"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="193" t="s">
+      <c r="V7" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="W7" s="193" t="s">
+      <c r="W7" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="X7" s="193" t="s">
+      <c r="X7" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-    </row>
-    <row r="8" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+    </row>
+    <row r="8" spans="2:29" s="3" customFormat="1">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -7904,10 +7762,10 @@
         <v>104</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>125</v>
@@ -7923,36 +7781,36 @@
       <c r="K8" s="59"/>
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="195" t="s">
+      <c r="N8" s="194"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+      <c r="Q8" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="195"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193" t="s">
+      <c r="S8" s="196"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="193" t="s">
+      <c r="V8" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="W8" s="193" t="s">
+      <c r="W8" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="X8" s="193" t="s">
+      <c r="X8" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
-    </row>
-    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="199"/>
+      <c r="AB8" s="199"/>
+      <c r="AC8" s="199"/>
+    </row>
+    <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -7960,10 +7818,10 @@
         <v>104</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>127</v>
@@ -7981,38 +7839,38 @@
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="195" t="s">
+      <c r="N9" s="194"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S9" s="195"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193" t="s">
+      <c r="S9" s="196"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="193" t="s">
+      <c r="V9" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="193" t="s">
+      <c r="W9" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="193" t="s">
+      <c r="X9" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="Y9" s="199">
+      <c r="Y9" s="203">
         <v>1</v>
       </c>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="202"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="199"/>
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="199"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -8020,10 +7878,10 @@
         <v>104</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>94</v>
@@ -8043,40 +7901,40 @@
         <v>2</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="195" t="s">
+      <c r="N10" s="194"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S10" s="195"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193" t="s">
+      <c r="S10" s="196"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="V10" s="193" t="s">
+      <c r="V10" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="W10" s="193" t="s">
+      <c r="W10" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="X10" s="193" t="s">
+      <c r="X10" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="199">
+      <c r="Y10" s="203">
         <v>8</v>
       </c>
-      <c r="Z10" s="193">
+      <c r="Z10" s="194">
         <v>2</v>
       </c>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="202"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="199"/>
+      <c r="AB10" s="199"/>
+      <c r="AC10" s="199"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1">
       <c r="B11" s="87" t="s">
         <v>107</v>
       </c>
@@ -8084,10 +7942,10 @@
         <v>104</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>132</v>
@@ -8105,38 +7963,38 @@
       </c>
       <c r="L11" s="82"/>
       <c r="M11" s="96"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="196" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="196" t="s">
+      <c r="N11" s="201"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="196"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197" t="s">
+      <c r="S11" s="197"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="W11" s="197" t="s">
+      <c r="W11" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="X11" s="197" t="s">
+      <c r="X11" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="200">
+      <c r="Y11" s="204">
         <v>5</v>
       </c>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="200"/>
+      <c r="AB11" s="200"/>
+      <c r="AC11" s="200"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B12" s="87" t="s">
         <v>107</v>
       </c>
@@ -8144,10 +8002,10 @@
         <v>104</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>89</v>
@@ -8166,7 +8024,7 @@
       <c r="L12" s="81"/>
       <c r="M12" s="80"/>
       <c r="N12" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O12" s="83"/>
       <c r="P12" s="83"/>
@@ -8174,18 +8032,18 @@
         <v>104</v>
       </c>
       <c r="R12" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S12" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T12" s="83"/>
       <c r="U12" s="83"/>
       <c r="V12" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W12" s="75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X12" s="79" t="s">
         <v>118</v>
@@ -8198,7 +8056,7 @@
       <c r="AB12" s="80"/>
       <c r="AC12" s="80"/>
     </row>
-    <row r="13" spans="2:29" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="3" customFormat="1" ht="96">
       <c r="B13" s="87" t="s">
         <v>107</v>
       </c>
@@ -8206,16 +8064,16 @@
         <v>104</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
@@ -8228,7 +8086,7 @@
       <c r="L13" s="81"/>
       <c r="M13" s="80"/>
       <c r="N13" s="57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
@@ -8236,18 +8094,18 @@
         <v>104</v>
       </c>
       <c r="R13" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S13" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
       <c r="V13" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W13" s="75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X13" s="75" t="s">
         <v>115</v>
@@ -8260,7 +8118,7 @@
       <c r="AB13" s="80"/>
       <c r="AC13" s="80"/>
     </row>
-    <row r="14" spans="2:29" ht="348" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" ht="324">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="68"/>
@@ -8282,10 +8140,10 @@
         <v>104</v>
       </c>
       <c r="R14" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S14" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T14" s="73"/>
       <c r="U14" s="77" t="s">
@@ -8308,62 +8166,65 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29">
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29">
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:6">
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6">
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6">
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:6">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:6">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:6">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:6">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:6">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:6">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:6">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:6">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:6">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:6">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:6">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:6">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:6">
       <c r="F32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W5:W11"/>
+    <mergeCell ref="AA5:AA11"/>
+    <mergeCell ref="AB5:AB11"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8380,9 +8241,6 @@
     <mergeCell ref="V5:V11"/>
     <mergeCell ref="X5:X11"/>
     <mergeCell ref="Y5:Y11"/>
-    <mergeCell ref="W5:W11"/>
-    <mergeCell ref="AA5:AA11"/>
-    <mergeCell ref="AB5:AB11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8392,7 +8250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8400,7 +8258,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="13" customWidth="1"/>
@@ -8408,7 +8266,7 @@
     <col min="4" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="20"/>
@@ -8428,7 +8286,7 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
@@ -8448,7 +8306,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
@@ -8473,7 +8331,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="E4" s="15"/>
@@ -8495,7 +8353,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="34" t="s">
         <v>51</v>
       </c>
@@ -8503,7 +8361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="29" t="s">
         <v>48</v>
       </c>
@@ -8511,7 +8369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="29" t="s">
         <v>46</v>
       </c>
@@ -8519,7 +8377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
@@ -8527,7 +8385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="29" t="s">
         <v>42</v>
       </c>
@@ -8535,7 +8393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="29" t="s">
         <v>40</v>
       </c>
@@ -8543,7 +8401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
@@ -8551,7 +8409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
@@ -8559,7 +8417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="29" t="s">
         <v>34</v>
       </c>
@@ -8567,7 +8425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="29" t="s">
         <v>32</v>
       </c>
@@ -8575,7 +8433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
@@ -8583,7 +8441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="29" t="s">
         <v>28</v>
       </c>
@@ -8591,7 +8449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -8599,7 +8457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="30" t="s">
         <v>24</v>
       </c>
@@ -8607,7 +8465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
@@ -8615,7 +8473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
@@ -8623,7 +8481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
@@ -8631,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="32" t="s">
         <v>16</v>
       </c>
@@ -8656,12 +8514,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8714,7 +8567,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8733,9 +8591,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8756,9 +8614,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="942"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -2095,6 +2095,66 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2104,116 +2164,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,15 +2310,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2241,15 +2319,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2259,75 +2328,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2343,6 +2343,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2351,9 +2354,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2531,7 +2531,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2554,14 +2554,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2604,7 +2604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2627,14 +2627,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2964,10 +2964,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="120"/>
+      <c r="D2" s="114"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
@@ -3005,28 +3005,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -3035,17 +3035,17 @@
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130" t="s">
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -3054,94 +3054,86 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="132" t="s">
+      <c r="D12" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3152,6 +3144,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3209,17 +3209,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -3228,119 +3228,119 @@
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3354,17 +3354,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3376,16 +3376,16 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="145" t="s">
+      <c r="F18" s="145"/>
+      <c r="G18" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
@@ -3412,11 +3412,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="43" t="s">
@@ -3448,17 +3448,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="48" t="s">
@@ -3470,52 +3470,61 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139" t="s">
+      <c r="F26" s="148"/>
+      <c r="G26" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3532,15 +3541,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3578,10 +3578,10 @@
   <dimension ref="B1:AF66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3629,39 +3629,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -4057,40 +4057,40 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="176" t="s">
+      <c r="N9" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="181"/>
-      <c r="U9" s="164" t="s">
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="172"/>
+      <c r="U9" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="179" t="s">
+      <c r="V9" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="179" t="s">
+      <c r="W9" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="180" t="s">
+      <c r="X9" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="182">
+      <c r="Y9" s="176">
         <v>11</v>
       </c>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="180"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -4123,22 +4123,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -4171,22 +4171,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="180"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="180"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -5039,40 +5039,40 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="149" t="s">
+      <c r="N25" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="167"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="S25" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="T25" s="152"/>
-      <c r="U25" s="164" t="s">
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25" s="167"/>
+      <c r="U25" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="158" t="s">
+      <c r="V25" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="158" t="s">
+      <c r="W25" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="161" t="s">
+      <c r="X25" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="190">
+      <c r="Y25" s="158">
         <v>15</v>
       </c>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
@@ -5105,22 +5105,22 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
-      <c r="AC26" s="188"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="67"/>
@@ -5139,22 +5139,22 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="188"/>
-      <c r="AB27" s="188"/>
-      <c r="AC27" s="188"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
@@ -5181,22 +5181,22 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="67"/>
@@ -5215,22 +5215,22 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="188"/>
-      <c r="AB29" s="188"/>
-      <c r="AC29" s="188"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="67"/>
@@ -5249,22 +5249,22 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="191"/>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="188"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="67"/>
@@ -5283,22 +5283,22 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="168"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="165"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="191"/>
-      <c r="Z31" s="191"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="189"/>
-      <c r="AB32" s="189"/>
-      <c r="AC32" s="189"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
     </row>
     <row r="33" spans="2:29" ht="24">
       <c r="B33" s="69" t="s">
@@ -6195,15 +6195,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6220,16 +6221,15 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6242,9 +6242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6318,39 +6316,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7302,14 +7300,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7321,6 +7311,14 @@
     <mergeCell ref="S9:S15"/>
     <mergeCell ref="T9:T15"/>
     <mergeCell ref="AB9:AB15"/>
+    <mergeCell ref="AC9:AC15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="X9:X15"/>
+    <mergeCell ref="Y9:Y15"/>
+    <mergeCell ref="Z9:Z15"/>
+    <mergeCell ref="AA9:AA15"/>
+    <mergeCell ref="W9:W15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7387,39 +7385,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7606,8 +7604,8 @@
       <c r="N5" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
       <c r="Q5" s="195" t="s">
         <v>104</v>
       </c>
@@ -7634,9 +7632,9 @@
         <v>2</v>
       </c>
       <c r="Z5" s="193"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
     </row>
     <row r="6" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B6" s="79" t="s">
@@ -7668,8 +7666,8 @@
       <c r="L6" s="80"/>
       <c r="M6" s="96"/>
       <c r="N6" s="194"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
       <c r="Q6" s="196" t="s">
         <v>104</v>
       </c>
@@ -7694,9 +7692,9 @@
         <v>2</v>
       </c>
       <c r="Z6" s="194"/>
-      <c r="AA6" s="199"/>
-      <c r="AB6" s="199"/>
-      <c r="AC6" s="199"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="200"/>
     </row>
     <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="79" t="s">
@@ -7726,8 +7724,8 @@
       <c r="L7" s="80"/>
       <c r="M7" s="97"/>
       <c r="N7" s="194"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
       <c r="Q7" s="196" t="s">
         <v>104</v>
       </c>
@@ -7750,9 +7748,9 @@
       </c>
       <c r="Y7" s="203"/>
       <c r="Z7" s="194"/>
-      <c r="AA7" s="199"/>
-      <c r="AB7" s="199"/>
-      <c r="AC7" s="199"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
     </row>
     <row r="8" spans="2:29" s="3" customFormat="1">
       <c r="B8" s="79" t="s">
@@ -7782,8 +7780,8 @@
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
       <c r="N8" s="194"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
       <c r="Q8" s="196" t="s">
         <v>104</v>
       </c>
@@ -7806,9 +7804,9 @@
       </c>
       <c r="Y8" s="203"/>
       <c r="Z8" s="194"/>
-      <c r="AA8" s="199"/>
-      <c r="AB8" s="199"/>
-      <c r="AC8" s="199"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
     </row>
     <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
@@ -7840,8 +7838,8 @@
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
       <c r="N9" s="194"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="200"/>
       <c r="Q9" s="196" t="s">
         <v>104</v>
       </c>
@@ -7866,9 +7864,9 @@
         <v>1</v>
       </c>
       <c r="Z9" s="194"/>
-      <c r="AA9" s="199"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="199"/>
+      <c r="AA9" s="200"/>
+      <c r="AB9" s="200"/>
+      <c r="AC9" s="200"/>
     </row>
     <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
@@ -7902,8 +7900,8 @@
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="194"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="199"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="200"/>
       <c r="Q10" s="196" t="s">
         <v>104</v>
       </c>
@@ -7930,9 +7928,9 @@
       <c r="Z10" s="194">
         <v>2</v>
       </c>
-      <c r="AA10" s="199"/>
-      <c r="AB10" s="199"/>
-      <c r="AC10" s="199"/>
+      <c r="AA10" s="200"/>
+      <c r="AB10" s="200"/>
+      <c r="AC10" s="200"/>
     </row>
     <row r="11" spans="2:29" s="3" customFormat="1">
       <c r="B11" s="87" t="s">
@@ -7963,9 +7961,9 @@
       </c>
       <c r="L11" s="82"/>
       <c r="M11" s="96"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
       <c r="Q11" s="197" t="s">
         <v>104</v>
       </c>
@@ -7973,26 +7971,26 @@
         <v>120</v>
       </c>
       <c r="S11" s="197"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201" t="s">
+      <c r="T11" s="198"/>
+      <c r="U11" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="201" t="s">
+      <c r="V11" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="W11" s="201" t="s">
+      <c r="W11" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="X11" s="201" t="s">
+      <c r="X11" s="198" t="s">
         <v>115</v>
       </c>
       <c r="Y11" s="204">
         <v>5</v>
       </c>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="201"/>
+      <c r="AC11" s="201"/>
     </row>
     <row r="12" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B12" s="87" t="s">
@@ -8222,6 +8220,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V5:V11"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="Y5:Y11"/>
     <mergeCell ref="W5:W11"/>
     <mergeCell ref="AA5:AA11"/>
     <mergeCell ref="AB5:AB11"/>
@@ -8238,9 +8239,6 @@
     <mergeCell ref="S5:S11"/>
     <mergeCell ref="T5:T11"/>
     <mergeCell ref="U5:U11"/>
-    <mergeCell ref="V5:V11"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="Y5:Y11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8514,7 +8512,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8567,12 +8570,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8591,9 +8589,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8614,9 +8612,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="942"/>
@@ -2095,6 +2095,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2107,15 +2125,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,14 +2164,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2173,9 +2182,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2194,11 +2200,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2209,14 +2286,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2236,98 +2328,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2347,6 +2347,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,15 +2363,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2531,7 +2531,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2554,14 +2554,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2604,7 +2604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2627,14 +2627,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2964,10 +2964,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="114"/>
+      <c r="D2" s="120"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
@@ -3005,28 +3005,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -3035,17 +3035,17 @@
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -3054,86 +3054,94 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132" t="s">
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3144,14 +3152,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3209,17 +3209,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -3228,119 +3228,119 @@
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3354,17 +3354,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3376,16 +3376,16 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="147"/>
+      <c r="G18" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
@@ -3412,11 +3412,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="43" t="s">
@@ -3448,17 +3448,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="48" t="s">
@@ -3470,61 +3470,52 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148" t="s">
+      <c r="F26" s="139"/>
+      <c r="G26" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3541,6 +3532,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3554,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="M16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3629,39 +3629,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="161" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -4057,40 +4057,40 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="149" t="s">
+      <c r="N9" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="172"/>
-      <c r="U9" s="173" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="181"/>
+      <c r="U9" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="170" t="s">
+      <c r="V9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="170" t="s">
+      <c r="W9" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="171" t="s">
+      <c r="X9" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="176">
+      <c r="Y9" s="182">
         <v>11</v>
       </c>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="149"/>
+      <c r="Z9" s="185"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -4123,22 +4123,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="180"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="185"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -4171,22 +4171,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="180"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="185"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -5039,40 +5039,40 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="181" t="s">
+      <c r="N25" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="190"/>
-      <c r="P25" s="190"/>
-      <c r="Q25" s="184" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="S25" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="T25" s="167"/>
-      <c r="U25" s="173" t="s">
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25" s="152"/>
+      <c r="U25" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="152" t="s">
+      <c r="V25" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="152" t="s">
+      <c r="W25" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="187" t="s">
+      <c r="X25" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="158">
+      <c r="Y25" s="190">
         <v>15</v>
       </c>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
@@ -5105,22 +5105,22 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="188"/>
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="67"/>
@@ -5139,22 +5139,22 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="188"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="188"/>
+      <c r="AB27" s="188"/>
+      <c r="AC27" s="188"/>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
@@ -5181,22 +5181,22 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="191"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="67"/>
@@ -5215,22 +5215,22 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="67"/>
@@ -5249,22 +5249,22 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="188"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="159"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="191"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="188"/>
+      <c r="AB30" s="188"/>
+      <c r="AC30" s="188"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="67"/>
@@ -5283,22 +5283,22 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="191"/>
-      <c r="P31" s="191"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="159"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="159"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="191"/>
+      <c r="Z31" s="191"/>
+      <c r="AA31" s="188"/>
+      <c r="AB31" s="188"/>
+      <c r="AC31" s="188"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="169"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="154"/>
-      <c r="X32" s="189"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="189"/>
     </row>
     <row r="33" spans="2:29" ht="24">
       <c r="B33" s="69" t="s">
@@ -6195,16 +6195,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6221,15 +6220,16 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6316,39 +6316,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="161" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7300,6 +7300,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC9:AC15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="X9:X15"/>
+    <mergeCell ref="Y9:Y15"/>
+    <mergeCell ref="Z9:Z15"/>
+    <mergeCell ref="AA9:AA15"/>
+    <mergeCell ref="W9:W15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7311,14 +7319,6 @@
     <mergeCell ref="S9:S15"/>
     <mergeCell ref="T9:T15"/>
     <mergeCell ref="AB9:AB15"/>
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7385,39 +7385,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="161" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7604,8 +7604,8 @@
       <c r="N5" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
       <c r="Q5" s="195" t="s">
         <v>104</v>
       </c>
@@ -7628,13 +7628,13 @@
       <c r="X5" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="202">
+      <c r="Y5" s="199">
         <v>2</v>
       </c>
       <c r="Z5" s="193"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="199"/>
+      <c r="AA5" s="202"/>
+      <c r="AB5" s="202"/>
+      <c r="AC5" s="202"/>
     </row>
     <row r="6" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B6" s="79" t="s">
@@ -7666,8 +7666,8 @@
       <c r="L6" s="80"/>
       <c r="M6" s="96"/>
       <c r="N6" s="194"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
       <c r="Q6" s="196" t="s">
         <v>104</v>
       </c>
@@ -7688,13 +7688,13 @@
       <c r="X6" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="203">
+      <c r="Y6" s="200">
         <v>2</v>
       </c>
       <c r="Z6" s="194"/>
-      <c r="AA6" s="200"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="200"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
     </row>
     <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="79" t="s">
@@ -7724,8 +7724,8 @@
       <c r="L7" s="80"/>
       <c r="M7" s="97"/>
       <c r="N7" s="194"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
       <c r="Q7" s="196" t="s">
         <v>104</v>
       </c>
@@ -7746,11 +7746,11 @@
       <c r="X7" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="203"/>
+      <c r="Y7" s="200"/>
       <c r="Z7" s="194"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
     </row>
     <row r="8" spans="2:29" s="3" customFormat="1">
       <c r="B8" s="79" t="s">
@@ -7780,8 +7780,8 @@
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
       <c r="N8" s="194"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
       <c r="Q8" s="196" t="s">
         <v>104</v>
       </c>
@@ -7802,11 +7802,11 @@
       <c r="X8" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y8" s="203"/>
+      <c r="Y8" s="200"/>
       <c r="Z8" s="194"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
     </row>
     <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
@@ -7838,8 +7838,8 @@
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
       <c r="N9" s="194"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
       <c r="Q9" s="196" t="s">
         <v>104</v>
       </c>
@@ -7860,13 +7860,13 @@
       <c r="X9" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="Y9" s="203">
+      <c r="Y9" s="200">
         <v>1</v>
       </c>
       <c r="Z9" s="194"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
     </row>
     <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
@@ -7900,8 +7900,8 @@
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="194"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
       <c r="Q10" s="196" t="s">
         <v>104</v>
       </c>
@@ -7922,15 +7922,15 @@
       <c r="X10" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="203">
+      <c r="Y10" s="200">
         <v>8</v>
       </c>
       <c r="Z10" s="194">
         <v>2</v>
       </c>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="200"/>
+      <c r="AA10" s="203"/>
+      <c r="AB10" s="203"/>
+      <c r="AC10" s="203"/>
     </row>
     <row r="11" spans="2:29" s="3" customFormat="1">
       <c r="B11" s="87" t="s">
@@ -7962,8 +7962,8 @@
       <c r="L11" s="82"/>
       <c r="M11" s="96"/>
       <c r="N11" s="198"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
       <c r="Q11" s="197" t="s">
         <v>104</v>
       </c>
@@ -7984,13 +7984,13 @@
       <c r="X11" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="204">
+      <c r="Y11" s="201">
         <v>5</v>
       </c>
       <c r="Z11" s="198"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
     </row>
     <row r="12" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B12" s="87" t="s">
@@ -8220,11 +8220,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V5:V11"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="Y5:Y11"/>
-    <mergeCell ref="W5:W11"/>
-    <mergeCell ref="AA5:AA11"/>
     <mergeCell ref="AB5:AB11"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="B2:M2"/>
@@ -8239,6 +8234,11 @@
     <mergeCell ref="S5:S11"/>
     <mergeCell ref="T5:T11"/>
     <mergeCell ref="U5:U11"/>
+    <mergeCell ref="V5:V11"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="Y5:Y11"/>
+    <mergeCell ref="W5:W11"/>
+    <mergeCell ref="AA5:AA11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8512,12 +8512,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8570,7 +8565,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8589,9 +8589,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8612,9 +8612,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="942"/>
@@ -2095,6 +2095,66 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2104,116 +2164,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,15 +2310,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2241,15 +2319,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2259,75 +2328,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2343,6 +2343,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2354,15 +2363,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2531,7 +2531,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2554,14 +2554,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2604,7 +2604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2627,14 +2627,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2964,10 +2964,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="120"/>
+      <c r="D2" s="114"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
@@ -3005,28 +3005,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="129"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -3035,17 +3035,17 @@
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130" t="s">
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -3054,94 +3054,86 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="132" t="s">
+      <c r="D12" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3152,6 +3144,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3209,17 +3209,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -3228,119 +3228,119 @@
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3354,17 +3354,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3376,16 +3376,16 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="145" t="s">
+      <c r="F18" s="145"/>
+      <c r="G18" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
@@ -3412,11 +3412,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="43" t="s">
@@ -3448,17 +3448,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="48" t="s">
@@ -3470,52 +3470,61 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139" t="s">
+      <c r="F26" s="148"/>
+      <c r="G26" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3532,15 +3541,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3554,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M16" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="R16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3629,39 +3629,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -4057,40 +4057,40 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="176" t="s">
+      <c r="N9" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="181"/>
-      <c r="U9" s="164" t="s">
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="172"/>
+      <c r="U9" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="179" t="s">
+      <c r="V9" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="179" t="s">
+      <c r="W9" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="180" t="s">
+      <c r="X9" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="182">
+      <c r="Y9" s="176">
         <v>11</v>
       </c>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="180"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -4123,22 +4123,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="180"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -4171,22 +4171,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="180"/>
-      <c r="Y11" s="184"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="180"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -5039,40 +5039,40 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="149" t="s">
+      <c r="N25" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="167"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="S25" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="T25" s="152"/>
-      <c r="U25" s="164" t="s">
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25" s="167"/>
+      <c r="U25" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="158" t="s">
+      <c r="V25" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="158" t="s">
+      <c r="W25" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="161" t="s">
+      <c r="X25" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="190">
+      <c r="Y25" s="158">
         <v>15</v>
       </c>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
@@ -5105,22 +5105,22 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="188"/>
-      <c r="AB26" s="188"/>
-      <c r="AC26" s="188"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="67"/>
@@ -5139,22 +5139,22 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="188"/>
-      <c r="AB27" s="188"/>
-      <c r="AC27" s="188"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
@@ -5181,22 +5181,22 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="67"/>
@@ -5215,22 +5215,22 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="188"/>
-      <c r="AB29" s="188"/>
-      <c r="AC29" s="188"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="67"/>
@@ -5249,22 +5249,22 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="191"/>
-      <c r="Z30" s="191"/>
-      <c r="AA30" s="188"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="188"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="188"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="67"/>
@@ -5283,22 +5283,22 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="168"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="165"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="191"/>
-      <c r="Z31" s="191"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="188"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="189"/>
-      <c r="AB32" s="189"/>
-      <c r="AC32" s="189"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
     </row>
     <row r="33" spans="2:29" ht="24">
       <c r="B33" s="69" t="s">
@@ -6195,15 +6195,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6220,16 +6221,15 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6316,39 +6316,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7300,14 +7300,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7319,6 +7311,14 @@
     <mergeCell ref="S9:S15"/>
     <mergeCell ref="T9:T15"/>
     <mergeCell ref="AB9:AB15"/>
+    <mergeCell ref="AC9:AC15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="X9:X15"/>
+    <mergeCell ref="Y9:Y15"/>
+    <mergeCell ref="Z9:Z15"/>
+    <mergeCell ref="AA9:AA15"/>
+    <mergeCell ref="W9:W15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7385,39 +7385,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="170" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7604,8 +7604,8 @@
       <c r="N5" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="O5" s="202"/>
-      <c r="P5" s="202"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
       <c r="Q5" s="195" t="s">
         <v>104</v>
       </c>
@@ -7628,13 +7628,13 @@
       <c r="X5" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="199">
+      <c r="Y5" s="202">
         <v>2</v>
       </c>
       <c r="Z5" s="193"/>
-      <c r="AA5" s="202"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="202"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
     </row>
     <row r="6" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B6" s="79" t="s">
@@ -7666,8 +7666,8 @@
       <c r="L6" s="80"/>
       <c r="M6" s="96"/>
       <c r="N6" s="194"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
       <c r="Q6" s="196" t="s">
         <v>104</v>
       </c>
@@ -7688,13 +7688,13 @@
       <c r="X6" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="200">
+      <c r="Y6" s="203">
         <v>2</v>
       </c>
       <c r="Z6" s="194"/>
-      <c r="AA6" s="203"/>
-      <c r="AB6" s="203"/>
-      <c r="AC6" s="203"/>
+      <c r="AA6" s="199"/>
+      <c r="AB6" s="199"/>
+      <c r="AC6" s="199"/>
     </row>
     <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="79" t="s">
@@ -7724,8 +7724,8 @@
       <c r="L7" s="80"/>
       <c r="M7" s="97"/>
       <c r="N7" s="194"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="199"/>
       <c r="Q7" s="196" t="s">
         <v>104</v>
       </c>
@@ -7746,11 +7746,11 @@
       <c r="X7" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="200"/>
+      <c r="Y7" s="203"/>
       <c r="Z7" s="194"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
     </row>
     <row r="8" spans="2:29" s="3" customFormat="1">
       <c r="B8" s="79" t="s">
@@ -7780,8 +7780,8 @@
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
       <c r="N8" s="194"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
       <c r="Q8" s="196" t="s">
         <v>104</v>
       </c>
@@ -7802,11 +7802,11 @@
       <c r="X8" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Y8" s="200"/>
+      <c r="Y8" s="203"/>
       <c r="Z8" s="194"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
+      <c r="AA8" s="199"/>
+      <c r="AB8" s="199"/>
+      <c r="AC8" s="199"/>
     </row>
     <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
@@ -7838,8 +7838,8 @@
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
       <c r="N9" s="194"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="199"/>
       <c r="Q9" s="196" t="s">
         <v>104</v>
       </c>
@@ -7860,13 +7860,13 @@
       <c r="X9" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="Y9" s="200">
+      <c r="Y9" s="203">
         <v>1</v>
       </c>
       <c r="Z9" s="194"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
+      <c r="AA9" s="199"/>
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
@@ -7900,8 +7900,8 @@
       </c>
       <c r="M10" s="78"/>
       <c r="N10" s="194"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="199"/>
       <c r="Q10" s="196" t="s">
         <v>104</v>
       </c>
@@ -7922,15 +7922,15 @@
       <c r="X10" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="200">
+      <c r="Y10" s="203">
         <v>8</v>
       </c>
       <c r="Z10" s="194">
         <v>2</v>
       </c>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
+      <c r="AA10" s="199"/>
+      <c r="AB10" s="199"/>
+      <c r="AC10" s="199"/>
     </row>
     <row r="11" spans="2:29" s="3" customFormat="1">
       <c r="B11" s="87" t="s">
@@ -7961,9 +7961,9 @@
       </c>
       <c r="L11" s="82"/>
       <c r="M11" s="96"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
       <c r="Q11" s="197" t="s">
         <v>104</v>
       </c>
@@ -7971,26 +7971,26 @@
         <v>120</v>
       </c>
       <c r="S11" s="197"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198" t="s">
+      <c r="T11" s="201"/>
+      <c r="U11" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="198" t="s">
+      <c r="V11" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="W11" s="198" t="s">
+      <c r="W11" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="X11" s="198" t="s">
+      <c r="X11" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="201">
+      <c r="Y11" s="204">
         <v>5</v>
       </c>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="200"/>
+      <c r="AB11" s="200"/>
+      <c r="AC11" s="200"/>
     </row>
     <row r="12" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B12" s="87" t="s">
@@ -8220,6 +8220,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Y5:Y11"/>
+    <mergeCell ref="W5:W11"/>
+    <mergeCell ref="AA5:AA11"/>
     <mergeCell ref="AB5:AB11"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="B2:M2"/>
@@ -8236,9 +8239,6 @@
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="V5:V11"/>
     <mergeCell ref="X5:X11"/>
-    <mergeCell ref="Y5:Y11"/>
-    <mergeCell ref="W5:W11"/>
-    <mergeCell ref="AA5:AA11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8512,7 +8512,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8565,12 +8570,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8589,9 +8589,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8612,9 +8612,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>